--- a/Liste des étudiants.xlsx
+++ b/Liste des étudiants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Cne</t>
   </si>
@@ -29,34 +29,64 @@
     <t>Nom</t>
   </si>
   <si>
+    <t>Date_Naissance</t>
+  </si>
+  <si>
     <t>Ville_Naissance</t>
   </si>
   <si>
     <t>Annee_Inscription</t>
   </si>
   <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>1614017482</t>
-  </si>
-  <si>
-    <t>P332241</t>
-  </si>
-  <si>
-    <t>1715145</t>
+    <t>Adresse_Universitaire</t>
+  </si>
+  <si>
+    <t>G123456789</t>
+  </si>
+  <si>
+    <t>EE1234</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Ibtissam</t>
+  </si>
+  <si>
+    <t>Rachidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24/09/1998 </t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>rachidi.ibtissam@sir.fstg</t>
+  </si>
+  <si>
+    <t>G0987654321</t>
+  </si>
+  <si>
+    <t>JJ1234</t>
+  </si>
+  <si>
+    <t>098765</t>
   </si>
   <si>
     <t>Lamya</t>
   </si>
   <si>
-    <t>Rafii</t>
-  </si>
-  <si>
-    <t>Ouarzazate</t>
-  </si>
-  <si>
-    <t>Lamya.Rafii@edu.uca.ma</t>
+    <t>Rayess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/03/1997 </t>
+  </si>
+  <si>
+    <t>Ourzazate</t>
+  </si>
+  <si>
+    <t>rayess.lamya@sir.fstg</t>
   </si>
 </sst>
 </file>
@@ -132,57 +162,66 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
         <v>2016.0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
